--- a/data/NutAverage.xlsx
+++ b/data/NutAverage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24822"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srvpr\Documents\GitHub\bsrvp.github.io\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/757691f4f86b2132/Documents/GitHub/bsrvp.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{02556074-A402-4BF2-9909-5F66B58B499B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:40009_{02556074-A402-4BF2-9909-5F66B58B499B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53F3C47E-E389-4787-8F33-DD040610DE51}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,11 +419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,16 +454,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.2646658823529409</v>
+        <v>6.9158790209472158</v>
       </c>
       <c r="C2">
-        <v>0.88072647058823517</v>
+        <v>2.8853724157888614</v>
       </c>
       <c r="D2">
-        <v>7.2572970588235322</v>
+        <v>7.4578316673615843</v>
       </c>
       <c r="E2">
-        <v>33.108325588235289</v>
+        <v>35.834969119416563</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -471,16 +471,16 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>5.0469642857142842</v>
+        <v>6.3449647455394835</v>
       </c>
       <c r="C3">
-        <v>0.82090857142857165</v>
+        <v>2.852122512677755</v>
       </c>
       <c r="D3">
-        <v>5.3741571428571424</v>
+        <v>5.6967532812691122</v>
       </c>
       <c r="E3">
-        <v>33.575754285714282</v>
+        <v>36.359106474499782</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -488,16 +488,16 @@
         <v>78</v>
       </c>
       <c r="B4">
-        <v>3.9513833333333332</v>
+        <v>4.9647448767537901</v>
       </c>
       <c r="C4">
-        <v>0.29104861111111108</v>
+        <v>2.090746597186929</v>
       </c>
       <c r="D4">
-        <v>1.862919722222222</v>
+        <v>2.1673747268185748</v>
       </c>
       <c r="E4">
-        <v>38.219726388888887</v>
+        <v>40.719987198050148</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -505,16 +505,16 @@
         <v>116</v>
       </c>
       <c r="B5">
-        <v>3.1599197222222233</v>
+        <v>4.3614915039337738</v>
       </c>
       <c r="C5">
-        <v>0.20478083333333333</v>
+        <v>2.3016303147132176</v>
       </c>
       <c r="D5">
-        <v>1.8440233333333336</v>
+        <v>1.6532664615490105</v>
       </c>
       <c r="E5">
-        <v>22.129294166666671</v>
+        <v>24.931194158337625</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -522,16 +522,16 @@
         <v>143</v>
       </c>
       <c r="B6">
-        <v>2.7432111111111106</v>
+        <v>3.9803718419116407</v>
       </c>
       <c r="C6">
-        <v>0.18364166666666665</v>
+        <v>1.419541290372718</v>
       </c>
       <c r="D6">
-        <v>0.53387166666666674</v>
+        <v>0.23353817073950456</v>
       </c>
       <c r="E6">
-        <v>34.058826388888889</v>
+        <v>36.234797236964731</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -539,16 +539,16 @@
         <v>181</v>
       </c>
       <c r="B7">
-        <v>3.5265583333333348</v>
+        <v>4.8140072541127674</v>
       </c>
       <c r="C7">
-        <v>0.14577444444444448</v>
+        <v>1.4162726624749835</v>
       </c>
       <c r="D7">
-        <v>0.60104722222222218</v>
+        <v>0.18558384487711499</v>
       </c>
       <c r="E7">
-        <v>33.774904166666659</v>
+        <v>36.269085677884561</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -556,16 +556,16 @@
         <v>210</v>
       </c>
       <c r="B8">
-        <v>4.0640277777777776</v>
+        <v>5.7748256273399674</v>
       </c>
       <c r="C8">
-        <v>0.14974861111111112</v>
+        <v>2.2502514744685076</v>
       </c>
       <c r="D8">
-        <v>0.77408228571428561</v>
+        <v>1.0342972775886277</v>
       </c>
       <c r="E8">
-        <v>25.287861111111109</v>
+        <v>27.557017565950602</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -573,16 +573,16 @@
         <v>236</v>
       </c>
       <c r="B9">
-        <v>2.971816111111111</v>
+        <v>4.4392865188797508</v>
       </c>
       <c r="C9">
-        <v>0.17719166666666672</v>
+        <v>1.9778439136011512</v>
       </c>
       <c r="D9">
-        <v>0.60853055555555546</v>
+        <v>0.48263528393120569</v>
       </c>
       <c r="E9">
-        <v>43.047703333333331</v>
+        <v>45.557638976045624</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -590,16 +590,16 @@
         <v>270</v>
       </c>
       <c r="B10">
-        <v>1.3195402777777776</v>
+        <v>2.3947527050255402</v>
       </c>
       <c r="C10">
-        <v>9.031249999999999E-2</v>
+        <v>2.289395525155534</v>
       </c>
       <c r="D10">
-        <v>0.96938242424242449</v>
+        <v>1.4392766875500858</v>
       </c>
       <c r="E10">
-        <v>25.233828333333328</v>
+        <v>28.102278145422535</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -607,16 +607,16 @@
         <v>298</v>
       </c>
       <c r="B11">
-        <v>0.71875500000000025</v>
+        <v>1.9568913614872074</v>
       </c>
       <c r="C11">
-        <v>0.19024388888888888</v>
+        <v>1.6852778694871553</v>
       </c>
       <c r="D11">
-        <v>1.1766836111111112</v>
+        <v>0.83184633899265847</v>
       </c>
       <c r="E11">
-        <v>27.093377777777775</v>
+        <v>30.017141259217055</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -624,16 +624,16 @@
         <v>332</v>
       </c>
       <c r="B12">
-        <v>2.0086350000000008</v>
+        <v>3.965562145119514</v>
       </c>
       <c r="C12">
-        <v>0.28323972222222227</v>
+        <v>2.3304944780670938</v>
       </c>
       <c r="D12">
-        <v>1.5267447222222221</v>
+        <v>1.6131062802933558</v>
       </c>
       <c r="E12">
-        <v>28.546315555555552</v>
+        <v>31.488240335243852</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -641,16 +641,16 @@
         <v>364</v>
       </c>
       <c r="B13">
-        <v>3.4056391428571438</v>
+        <v>4.5216286232429566</v>
       </c>
       <c r="C13">
-        <v>0.26030057142857149</v>
+        <v>2.3056321010448588</v>
       </c>
       <c r="D13">
-        <v>1.8157400000000004</v>
+        <v>1.6705971654066694</v>
       </c>
       <c r="E13">
-        <v>39.043305666666669</v>
+        <v>41.09558930741435</v>
       </c>
     </row>
   </sheetData>
